--- a/backend/visualisation/data/Amendemenet.xlsx
+++ b/backend/visualisation/data/Amendemenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage um6p\Fw_ Résultats_Analyse de sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A02C5-7A94-43D2-829C-9F6FBA387984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F00F01A-D2C6-40F0-8D6F-2CE403B0319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Extremely saline</t>
+  </si>
+  <si>
+    <t>Mtest</t>
+  </si>
+  <si>
+    <t>Mtest2</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +687,160 @@
         <v>8.12407681</v>
       </c>
     </row>
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-7.8516709999999996</v>
+      </c>
+      <c r="D3" s="4">
+        <v>32.209716999999998</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44998</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H3" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="L3" s="8">
+        <v>47.02</v>
+      </c>
+      <c r="M3" s="9">
+        <v>13.73</v>
+      </c>
+      <c r="N3" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="O3" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2.61</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="V3" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="W3" s="8">
+        <v>69.17</v>
+      </c>
+      <c r="X3" s="8">
+        <v>21.74</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>8.12407681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-7.8516709999999996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32.209716999999998</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45029</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H4" s="7">
+        <v>18.97</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="L4" s="8">
+        <v>47.02</v>
+      </c>
+      <c r="M4" s="9">
+        <v>13.73</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="O4" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2.61</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="V4" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="W4" s="8">
+        <v>69.17</v>
+      </c>
+      <c r="X4" s="8">
+        <v>21.74</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>8.12407681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
